--- a/eda/vlsp2016/dev/column-3-analyze.xlsx
+++ b/eda/vlsp2016/dev/column-3-analyze.xlsx
@@ -19,109 +19,109 @@
     <t>3</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>0</t>
   </si>
   <si>
     <t>count</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>B-LOC</t>
   </si>
   <si>
-    <t>NNP, N, Ny, M, V</t>
-  </si>
-  <si>
     <t>B-NP, I-NP</t>
   </si>
   <si>
-    <t>VN, Mỹ, Hà Nội, miền, TP., NTLS, Đức Phổ, huyện, tỉnh, Lào</t>
+    <t>Np, N, Ny, M, V</t>
+  </si>
+  <si>
+    <t>VN, Mỹ, miền, Hà Nội, TP., NTLS, huyện, tỉnh, Đức Phổ, Lào</t>
   </si>
   <si>
     <t>B-MISC</t>
   </si>
   <si>
-    <t>Ns, N</t>
-  </si>
-  <si>
     <t>B-NP</t>
   </si>
   <si>
+    <t>Nc, N</t>
+  </si>
+  <si>
     <t>người, tiếng, Người</t>
   </si>
   <si>
     <t>B-ORG</t>
   </si>
   <si>
-    <t>NNP, N, Ny, Ns, CH</t>
-  </si>
-  <si>
-    <t>Công ty, Đảng, Hội, Hãng, báo, Trường, Bộ, UBND, sư, Bưu điện</t>
+    <t>Np, N, Ny, Nc, CH</t>
+  </si>
+  <si>
+    <t>Công ty, Đảng, Hãng, Trường, Hội, báo, Bộ, Bệnh viện, sư, UBND</t>
   </si>
   <si>
     <t>B-PER</t>
   </si>
   <si>
-    <t>NNP, Ny, N, Nc</t>
-  </si>
-  <si>
-    <t>Thuỳ, Nguyễn, Khiêm, M., Thành, Hiền, Bibi, Fred, Trần, Bốn</t>
+    <t>Np, Ny, N, Nc</t>
+  </si>
+  <si>
+    <t>Thuỳ, Nguyễn, Khiêm, M., Thành, Hiền, Trần, Fred, Bibi, Bốn</t>
   </si>
   <si>
     <t>I-LOC</t>
   </si>
   <si>
-    <t>NNP, M, N, Ny, I-NP, CH</t>
-  </si>
-  <si>
     <t>I-NP</t>
   </si>
   <si>
-    <t>HCM, Nam, Bắc, Lao Bảo, Trường Sơn, 1, 9, Đường, 5, Quảng Trị</t>
+    <t>Np, M, N, Ny, CH</t>
+  </si>
+  <si>
+    <t>HCM, Nam, Bắc, Lao Bảo, Trường Sơn, 9, 1, Đường, 5, Quảng Trị</t>
   </si>
   <si>
     <t>I-MISC</t>
   </si>
   <si>
-    <t>NNP, Ns</t>
-  </si>
-  <si>
-    <t>VN, Việt, Mỹ, Anh, Pháp, Thái, Campuchia, Trung Quốc, Lào, Việt Nam</t>
+    <t>Np, Nc</t>
+  </si>
+  <si>
+    <t>VN, Việt, Mỹ, Anh, Việt Nam, Thái, Campuchia, Pakistan, Lào, Pháp</t>
   </si>
   <si>
     <t>I-ORG</t>
   </si>
   <si>
-    <t>NNP, N, Ny, M, V, CH, Nb, A, Ns, FW</t>
-  </si>
-  <si>
-    <t>TP., HCM, Trường Sơn, phụ nữ, Liên hiệp, Đà Nẵng, Khai Minh, F., TNHH, T.Ư</t>
+    <t>Np, N, Ny, M, V, CH, FW, A, E, Nc</t>
+  </si>
+  <si>
+    <t>HCM, TP., Trường Sơn, Khai Minh, phụ nữ, Đà Nẵng, Liên hiệp, F., TNHH, 1</t>
   </si>
   <si>
     <t>I-PER</t>
   </si>
   <si>
-    <t>NNP, CH, A</t>
-  </si>
-  <si>
     <t>I-NP, B-NP</t>
   </si>
   <si>
-    <t>Văn, Thị, Trâm, Bạch, Đằng, Minh, ", Ngọc, Thanh, Trung</t>
+    <t>Np, CH, A</t>
+  </si>
+  <si>
+    <t>Văn, Thị, Trâm, Bạch, Đằng, Minh, ", Trung, Thanh, Ngọc</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>N, V, CH, R, A, E, P, M, C, Ns</t>
-  </si>
-  <si>
-    <t>B-NP, O, B-VP, B-AP, B-PP, B-IP, I-NP</t>
+    <t>B-NP, O, B-VP, B-AP, B-PP, I-NP</t>
+  </si>
+  <si>
+    <t>N, V, CH, R, A, E, P, C, Nc, M</t>
   </si>
   <si>
     <t>,, ., ", của, một, những, người, là, đã, và</t>
@@ -508,11 +508,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
         <v>507</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -525,11 +525,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
         <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -537,16 +537,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
         <v>156</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -554,16 +554,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
         <v>749</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -576,11 +576,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
         <v>229</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -588,16 +588,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -605,16 +605,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="n">
         <v>215</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -627,11 +627,11 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="n">
         <v>349</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -644,11 +644,11 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="n">
         <v>41437</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
